--- a/src/main/webapp/file/mouldCart.xlsx
+++ b/src/main/webapp/file/mouldCart.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="27">
   <si>
     <t>卡号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -34,68 +34,88 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>会员级别id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>888</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>00000000120</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>00000000121</t>
-  </si>
-  <si>
-    <t>00000000122</t>
-  </si>
-  <si>
-    <t>00000000123</t>
-  </si>
-  <si>
-    <t>00000000124</t>
-  </si>
-  <si>
-    <t>00000000125</t>
-  </si>
-  <si>
-    <t>00000000126</t>
-  </si>
-  <si>
-    <t>00000000127</t>
-  </si>
-  <si>
-    <t>00000000128</t>
-  </si>
-  <si>
-    <t>00000000129</t>
-  </si>
-  <si>
-    <t>00000000130</t>
-  </si>
-  <si>
-    <t>00000000131</t>
-  </si>
-  <si>
-    <t>00000000132</t>
-  </si>
-  <si>
-    <t>00000000133</t>
-  </si>
-  <si>
-    <t>00000000134</t>
-  </si>
-  <si>
-    <t>00000000135</t>
-  </si>
-  <si>
-    <t>00000000136</t>
+    <t>会员名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级会员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>至尊会员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钻石会员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>288</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>488</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>688</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00000001250</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00000001251</t>
+  </si>
+  <si>
+    <t>00000001252</t>
+  </si>
+  <si>
+    <t>00000001253</t>
+  </si>
+  <si>
+    <t>00000001254</t>
+  </si>
+  <si>
+    <t>00000001255</t>
+  </si>
+  <si>
+    <t>00000001256</t>
+  </si>
+  <si>
+    <t>00000001257</t>
+  </si>
+  <si>
+    <t>00000001258</t>
+  </si>
+  <si>
+    <t>00000001259</t>
+  </si>
+  <si>
+    <t>00000001260</t>
+  </si>
+  <si>
+    <t>00000001261</t>
+  </si>
+  <si>
+    <t>00000001262</t>
+  </si>
+  <si>
+    <t>00000001263</t>
+  </si>
+  <si>
+    <t>00000001264</t>
+  </si>
+  <si>
+    <t>00000001265</t>
+  </si>
+  <si>
+    <t>00000001266</t>
+  </si>
+  <si>
+    <t>钻石会员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -439,7 +459,7 @@
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -462,10 +482,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>3</v>
@@ -473,10 +493,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>3</v>
@@ -484,10 +504,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>3</v>
@@ -495,10 +515,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>3</v>
@@ -506,10 +526,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>3</v>
@@ -517,10 +537,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>3</v>
@@ -528,123 +548,123 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
